--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8163016666666666</v>
+        <v>0.8238633333333333</v>
       </c>
       <c r="H2">
-        <v>2.448905</v>
+        <v>2.47159</v>
       </c>
       <c r="I2">
-        <v>0.2413881986261334</v>
+        <v>0.2181573957783601</v>
       </c>
       <c r="J2">
-        <v>0.2413881986261334</v>
+        <v>0.2181573957783601</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.331285</v>
+        <v>1.021465</v>
       </c>
       <c r="N2">
-        <v>3.993855</v>
+        <v>3.064395</v>
       </c>
       <c r="O2">
-        <v>0.04998946978772829</v>
+        <v>0.03918894356403102</v>
       </c>
       <c r="P2">
-        <v>0.04998946978772829</v>
+        <v>0.03918894356403101</v>
       </c>
       <c r="Q2">
-        <v>1.086730164308333</v>
+        <v>0.8415475597833333</v>
       </c>
       <c r="R2">
-        <v>9.780571478775</v>
+        <v>7.57392803805</v>
       </c>
       <c r="S2">
-        <v>0.01206686806233525</v>
+        <v>0.008549357871234134</v>
       </c>
       <c r="T2">
-        <v>0.01206686806233525</v>
+        <v>0.008549357871234132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8163016666666666</v>
+        <v>0.8238633333333333</v>
       </c>
       <c r="H3">
-        <v>2.448905</v>
+        <v>2.47159</v>
       </c>
       <c r="I3">
-        <v>0.2413881986261334</v>
+        <v>0.2181573957783601</v>
       </c>
       <c r="J3">
-        <v>0.2413881986261334</v>
+        <v>0.2181573957783601</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.132924</v>
       </c>
       <c r="O3">
-        <v>0.3896782341125657</v>
+        <v>0.3981426681675393</v>
       </c>
       <c r="P3">
-        <v>0.3896782341125657</v>
+        <v>0.3981426681675393</v>
       </c>
       <c r="Q3">
-        <v>8.47128591646889</v>
+        <v>8.549758181017777</v>
       </c>
       <c r="R3">
-        <v>76.24157324822001</v>
+        <v>76.94782362916</v>
       </c>
       <c r="S3">
-        <v>0.09406372697624495</v>
+        <v>0.08685776763567819</v>
       </c>
       <c r="T3">
-        <v>0.09406372697624495</v>
+        <v>0.08685776763567818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8163016666666666</v>
+        <v>0.8238633333333333</v>
       </c>
       <c r="H4">
-        <v>2.448905</v>
+        <v>2.47159</v>
       </c>
       <c r="I4">
-        <v>0.2413881986261334</v>
+        <v>0.2181573957783601</v>
       </c>
       <c r="J4">
-        <v>0.2413881986261334</v>
+        <v>0.2181573957783601</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.369861666666667</v>
+        <v>4.368617666666666</v>
       </c>
       <c r="N4">
-        <v>7.109585</v>
+        <v>13.105853</v>
       </c>
       <c r="O4">
-        <v>0.08898780365355934</v>
+        <v>0.1676038936153748</v>
       </c>
       <c r="P4">
-        <v>0.08898780365355935</v>
+        <v>0.1676038936153748</v>
       </c>
       <c r="Q4">
-        <v>1.934522028269444</v>
+        <v>3.599143912918888</v>
       </c>
       <c r="R4">
-        <v>17.410698254425</v>
+        <v>32.39229521627</v>
       </c>
       <c r="S4">
-        <v>0.02148060562362874</v>
+        <v>0.0365640289534435</v>
       </c>
       <c r="T4">
-        <v>0.02148060562362875</v>
+        <v>0.0365640289534435</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8163016666666666</v>
+        <v>0.8238633333333333</v>
       </c>
       <c r="H5">
-        <v>2.448905</v>
+        <v>2.47159</v>
       </c>
       <c r="I5">
-        <v>0.2413881986261334</v>
+        <v>0.2181573957783601</v>
       </c>
       <c r="J5">
-        <v>0.2413881986261334</v>
+        <v>0.2181573957783601</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.55252066666667</v>
+        <v>10.29740833333333</v>
       </c>
       <c r="N5">
-        <v>37.657562</v>
+        <v>30.892225</v>
       </c>
       <c r="O5">
-        <v>0.4713444924461466</v>
+        <v>0.3950644946530549</v>
       </c>
       <c r="P5">
-        <v>0.4713444924461467</v>
+        <v>0.3950644946530548</v>
       </c>
       <c r="Q5">
-        <v>10.24664354106778</v>
+        <v>8.483657154194443</v>
       </c>
       <c r="R5">
-        <v>92.21979186960999</v>
+        <v>76.35291438775</v>
       </c>
       <c r="S5">
-        <v>0.1137769979639245</v>
+        <v>0.08618624131800433</v>
       </c>
       <c r="T5">
-        <v>0.1137769979639245</v>
+        <v>0.08618624131800431</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.631435</v>
       </c>
       <c r="I6">
-        <v>0.3579500034006599</v>
+        <v>0.3205322899584435</v>
       </c>
       <c r="J6">
-        <v>0.3579500034006598</v>
+        <v>0.3205322899584435</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.331285</v>
+        <v>1.021465</v>
       </c>
       <c r="N6">
-        <v>3.993855</v>
+        <v>3.064395</v>
       </c>
       <c r="O6">
-        <v>0.04998946978772829</v>
+        <v>0.03918894356403102</v>
       </c>
       <c r="P6">
-        <v>0.04998946978772829</v>
+        <v>0.03918894356403101</v>
       </c>
       <c r="Q6">
-        <v>1.611491647991667</v>
+        <v>1.236461250758333</v>
       </c>
       <c r="R6">
-        <v>14.503424831925</v>
+        <v>11.128151256825</v>
       </c>
       <c r="S6">
-        <v>0.01789373088051453</v>
+        <v>0.01256132182163107</v>
       </c>
       <c r="T6">
-        <v>0.01789373088051452</v>
+        <v>0.01256132182163107</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.631435</v>
       </c>
       <c r="I7">
-        <v>0.3579500034006599</v>
+        <v>0.3205322899584435</v>
       </c>
       <c r="J7">
-        <v>0.3579500034006598</v>
+        <v>0.3205322899584435</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>31.132924</v>
       </c>
       <c r="O7">
-        <v>0.3896782341125657</v>
+        <v>0.3981426681675393</v>
       </c>
       <c r="P7">
-        <v>0.3896782341125657</v>
+        <v>0.3981426681675393</v>
       </c>
       <c r="Q7">
-        <v>12.56190998510445</v>
+        <v>12.56190998510444</v>
       </c>
       <c r="R7">
         <v>113.05718986594</v>
       </c>
       <c r="S7">
-        <v>0.139485325225756</v>
+        <v>0.1276175811579061</v>
       </c>
       <c r="T7">
-        <v>0.139485325225756</v>
+        <v>0.127617581157906</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.631435</v>
       </c>
       <c r="I8">
-        <v>0.3579500034006599</v>
+        <v>0.3205322899584435</v>
       </c>
       <c r="J8">
-        <v>0.3579500034006598</v>
+        <v>0.3205322899584435</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.369861666666667</v>
+        <v>4.368617666666666</v>
       </c>
       <c r="N8">
-        <v>7.109585</v>
+        <v>13.105853</v>
       </c>
       <c r="O8">
-        <v>0.08898780365355934</v>
+        <v>0.1676038936153748</v>
       </c>
       <c r="P8">
-        <v>0.08898780365355935</v>
+        <v>0.1676038936153748</v>
       </c>
       <c r="Q8">
-        <v>2.868666200497222</v>
+        <v>5.288117032117222</v>
       </c>
       <c r="R8">
-        <v>25.817995804475</v>
+        <v>47.593053289055</v>
       </c>
       <c r="S8">
-        <v>0.03185318462040881</v>
+        <v>0.05372245982648744</v>
       </c>
       <c r="T8">
-        <v>0.03185318462040881</v>
+        <v>0.05372245982648744</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.631435</v>
       </c>
       <c r="I9">
-        <v>0.3579500034006599</v>
+        <v>0.3205322899584435</v>
       </c>
       <c r="J9">
-        <v>0.3579500034006598</v>
+        <v>0.3205322899584435</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.55252066666667</v>
+        <v>10.29740833333333</v>
       </c>
       <c r="N9">
-        <v>37.657562</v>
+        <v>30.892225</v>
       </c>
       <c r="O9">
-        <v>0.4713444924461466</v>
+        <v>0.3950644946530549</v>
       </c>
       <c r="P9">
-        <v>0.4713444924461467</v>
+        <v>0.3950644946530548</v>
       </c>
       <c r="Q9">
-        <v>15.19455429571889</v>
+        <v>12.46478967698611</v>
       </c>
       <c r="R9">
-        <v>136.75098866147</v>
+        <v>112.183107092875</v>
       </c>
       <c r="S9">
-        <v>0.1687177626739804</v>
+        <v>0.1266309271524189</v>
       </c>
       <c r="T9">
-        <v>0.1687177626739805</v>
+        <v>0.1266309271524189</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.144104</v>
+        <v>0.316433</v>
       </c>
       <c r="H10">
-        <v>0.432312</v>
+        <v>0.9492990000000001</v>
       </c>
       <c r="I10">
-        <v>0.0426129290129511</v>
+        <v>0.0837908381466997</v>
       </c>
       <c r="J10">
-        <v>0.0426129290129511</v>
+        <v>0.0837908381466997</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.331285</v>
+        <v>1.021465</v>
       </c>
       <c r="N10">
-        <v>3.993855</v>
+        <v>3.064395</v>
       </c>
       <c r="O10">
-        <v>0.04998946978772829</v>
+        <v>0.03918894356403102</v>
       </c>
       <c r="P10">
-        <v>0.04998946978772829</v>
+        <v>0.03918894356403101</v>
       </c>
       <c r="Q10">
-        <v>0.19184349364</v>
+        <v>0.3232252343450001</v>
       </c>
       <c r="R10">
-        <v>1.72659144276</v>
+        <v>2.909027109105001</v>
       </c>
       <c r="S10">
-        <v>0.00213019772745953</v>
+        <v>0.003283674427313872</v>
       </c>
       <c r="T10">
-        <v>0.00213019772745953</v>
+        <v>0.003283674427313872</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.144104</v>
+        <v>0.316433</v>
       </c>
       <c r="H11">
-        <v>0.432312</v>
+        <v>0.9492990000000001</v>
       </c>
       <c r="I11">
-        <v>0.0426129290129511</v>
+        <v>0.0837908381466997</v>
       </c>
       <c r="J11">
-        <v>0.0426129290129511</v>
+        <v>0.0837908381466997</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>31.132924</v>
       </c>
       <c r="O11">
-        <v>0.3896782341125657</v>
+        <v>0.3981426681675393</v>
       </c>
       <c r="P11">
-        <v>0.3896782341125657</v>
+        <v>0.3981426681675393</v>
       </c>
       <c r="Q11">
-        <v>1.495459626698667</v>
+        <v>3.283828180030667</v>
       </c>
       <c r="R11">
-        <v>13.459136640288</v>
+        <v>29.554453620276</v>
       </c>
       <c r="S11">
-        <v>0.0166053309281309</v>
+        <v>0.03336070786772145</v>
       </c>
       <c r="T11">
-        <v>0.0166053309281309</v>
+        <v>0.03336070786772145</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.144104</v>
+        <v>0.316433</v>
       </c>
       <c r="H12">
-        <v>0.432312</v>
+        <v>0.9492990000000001</v>
       </c>
       <c r="I12">
-        <v>0.0426129290129511</v>
+        <v>0.0837908381466997</v>
       </c>
       <c r="J12">
-        <v>0.0426129290129511</v>
+        <v>0.0837908381466997</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.369861666666667</v>
+        <v>4.368617666666666</v>
       </c>
       <c r="N12">
-        <v>7.109585</v>
+        <v>13.105853</v>
       </c>
       <c r="O12">
-        <v>0.08898780365355934</v>
+        <v>0.1676038936153748</v>
       </c>
       <c r="P12">
-        <v>0.08898780365355935</v>
+        <v>0.1676038936153748</v>
       </c>
       <c r="Q12">
-        <v>0.3415065456133333</v>
+        <v>1.382374794116333</v>
       </c>
       <c r="R12">
-        <v>3.07355891052</v>
+        <v>12.441373147047</v>
       </c>
       <c r="S12">
-        <v>0.003792030960107554</v>
+        <v>0.01404367072268255</v>
       </c>
       <c r="T12">
-        <v>0.003792030960107555</v>
+        <v>0.01404367072268255</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.144104</v>
+        <v>0.316433</v>
       </c>
       <c r="H13">
-        <v>0.432312</v>
+        <v>0.9492990000000001</v>
       </c>
       <c r="I13">
-        <v>0.0426129290129511</v>
+        <v>0.0837908381466997</v>
       </c>
       <c r="J13">
-        <v>0.0426129290129511</v>
+        <v>0.0837908381466997</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.55252066666667</v>
+        <v>10.29740833333333</v>
       </c>
       <c r="N13">
-        <v>37.657562</v>
+        <v>30.892225</v>
       </c>
       <c r="O13">
-        <v>0.4713444924461466</v>
+        <v>0.3950644946530549</v>
       </c>
       <c r="P13">
-        <v>0.4713444924461467</v>
+        <v>0.3950644946530548</v>
       </c>
       <c r="Q13">
-        <v>1.808868438149333</v>
+        <v>3.258439811141667</v>
       </c>
       <c r="R13">
-        <v>16.279815943344</v>
+        <v>29.325958300275</v>
       </c>
       <c r="S13">
-        <v>0.02008536939725311</v>
+        <v>0.03310278512898183</v>
       </c>
       <c r="T13">
-        <v>0.02008536939725311</v>
+        <v>0.03310278512898183</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.210812666666667</v>
+        <v>1.425688333333333</v>
       </c>
       <c r="H14">
-        <v>3.632438</v>
+        <v>4.277065</v>
       </c>
       <c r="I14">
-        <v>0.3580488689602556</v>
+        <v>0.3775194761164967</v>
       </c>
       <c r="J14">
-        <v>0.3580488689602556</v>
+        <v>0.3775194761164967</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.331285</v>
+        <v>1.021465</v>
       </c>
       <c r="N14">
-        <v>3.993855</v>
+        <v>3.064395</v>
       </c>
       <c r="O14">
-        <v>0.04998946978772829</v>
+        <v>0.03918894356403102</v>
       </c>
       <c r="P14">
-        <v>0.04998946978772829</v>
+        <v>0.03918894356403101</v>
       </c>
       <c r="Q14">
-        <v>1.611936740943333</v>
+        <v>1.456290733408333</v>
       </c>
       <c r="R14">
-        <v>14.50743066849</v>
+        <v>13.106616600675</v>
       </c>
       <c r="S14">
-        <v>0.01789867311741898</v>
+        <v>0.01479458944385195</v>
       </c>
       <c r="T14">
-        <v>0.01789867311741898</v>
+        <v>0.01479458944385194</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.210812666666667</v>
+        <v>1.425688333333333</v>
       </c>
       <c r="H15">
-        <v>3.632438</v>
+        <v>4.277065</v>
       </c>
       <c r="I15">
-        <v>0.3580488689602556</v>
+        <v>0.3775194761164967</v>
       </c>
       <c r="J15">
-        <v>0.3580488689602556</v>
+        <v>0.3775194761164967</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>31.132924</v>
       </c>
       <c r="O15">
-        <v>0.3896782341125657</v>
+        <v>0.3981426681675393</v>
       </c>
       <c r="P15">
-        <v>0.3896782341125657</v>
+        <v>0.3981426681675393</v>
       </c>
       <c r="Q15">
-        <v>12.56537957652356</v>
+        <v>14.79528217645111</v>
       </c>
       <c r="R15">
-        <v>113.088416188712</v>
+        <v>133.15753958806</v>
       </c>
       <c r="S15">
-        <v>0.1395238509824339</v>
+        <v>0.1503066115062336</v>
       </c>
       <c r="T15">
-        <v>0.1395238509824339</v>
+        <v>0.1503066115062336</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.210812666666667</v>
+        <v>1.425688333333333</v>
       </c>
       <c r="H16">
-        <v>3.632438</v>
+        <v>4.277065</v>
       </c>
       <c r="I16">
-        <v>0.3580488689602556</v>
+        <v>0.3775194761164967</v>
       </c>
       <c r="J16">
-        <v>0.3580488689602556</v>
+        <v>0.3775194761164967</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.369861666666667</v>
+        <v>4.368617666666666</v>
       </c>
       <c r="N16">
-        <v>7.109585</v>
+        <v>13.105853</v>
       </c>
       <c r="O16">
-        <v>0.08898780365355934</v>
+        <v>0.1676038936153748</v>
       </c>
       <c r="P16">
-        <v>0.08898780365355935</v>
+        <v>0.1676038936153748</v>
       </c>
       <c r="Q16">
-        <v>2.869458524247777</v>
+        <v>6.228287240160555</v>
       </c>
       <c r="R16">
-        <v>25.82512671823</v>
+        <v>56.054585161445</v>
       </c>
       <c r="S16">
-        <v>0.03186198244941423</v>
+        <v>0.06327373411276135</v>
       </c>
       <c r="T16">
-        <v>0.03186198244941423</v>
+        <v>0.06327373411276135</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.210812666666667</v>
+        <v>1.425688333333333</v>
       </c>
       <c r="H17">
-        <v>3.632438</v>
+        <v>4.277065</v>
       </c>
       <c r="I17">
-        <v>0.3580488689602556</v>
+        <v>0.3775194761164967</v>
       </c>
       <c r="J17">
-        <v>0.3580488689602556</v>
+        <v>0.3775194761164967</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.55252066666667</v>
+        <v>10.29740833333333</v>
       </c>
       <c r="N17">
-        <v>37.657562</v>
+        <v>30.892225</v>
       </c>
       <c r="O17">
-        <v>0.4713444924461466</v>
+        <v>0.3950644946530549</v>
       </c>
       <c r="P17">
-        <v>0.4713444924461467</v>
+        <v>0.3950644946530548</v>
       </c>
       <c r="Q17">
-        <v>15.19875102179511</v>
+        <v>14.68089492440278</v>
       </c>
       <c r="R17">
-        <v>136.788759196156</v>
+        <v>132.128054319625</v>
       </c>
       <c r="S17">
-        <v>0.1687643624109885</v>
+        <v>0.1491445410536498</v>
       </c>
       <c r="T17">
-        <v>0.1687643624109886</v>
+        <v>0.1491445410536497</v>
       </c>
     </row>
   </sheetData>
